--- a/data/power.xlsx
+++ b/data/power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +88,22 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,8 +124,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -118,7 +136,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +471,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -507,10 +527,10 @@
         <v>0.19712099999999999</v>
       </c>
       <c r="D3">
-        <v>5.0109000000000001E-2</v>
+        <v>4.7696000000000002E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>2.8035000000000001E-2</v>
+        <v>2.9169E-2</v>
       </c>
       <c r="F3" s="1">
         <f>C3/C$2</f>
@@ -518,11 +538,11 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:H3" si="0">D3/D$2</f>
-        <v>5.1905673036174722E-2</v>
+        <v>4.9406154206497625E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>7.4241717579686645E-2</v>
+        <v>7.7244753346954867E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,7 +663,7 @@
         <v>0.96538599999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>0.337693555556</v>
+        <v>0.33791888888900001</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ref="F8:F22" si="4">C8/C$2</f>
@@ -655,15 +675,15 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8:H22" si="6">E8/E$2</f>
-        <v>0.89427321491238709</v>
+        <v>0.89486993806808091</v>
       </c>
       <c r="I8" s="1">
         <f>E8/E18</f>
-        <v>0.94709055384432461</v>
+        <v>0.93005056567193944</v>
       </c>
       <c r="J8" s="1">
         <f>1-I8</f>
-        <v>5.2909446155675388E-2</v>
+        <v>6.9949434328060556E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -813,10 +833,10 @@
         <v>0.19712099999999999</v>
       </c>
       <c r="D13">
-        <v>5.0576000000000003E-2</v>
+        <v>4.4567000000000002E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>2.7029000000000001E-2</v>
+        <v>2.1895999999999999E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
@@ -824,11 +844,11 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="5"/>
-        <v>5.2389417459489766E-2</v>
+        <v>4.616496298475721E-2</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="6"/>
-        <v>7.1577648812603895E-2</v>
+        <v>5.7984542469228413E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -949,7 +969,7 @@
         <v>0.96538599999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>0.356558888889</v>
+        <v>0.36333388888899998</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
@@ -961,7 +981,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="6"/>
-        <v>0.94423200747009117</v>
+        <v>0.96217342486272095</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1070,6 +1090,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
